--- a/F_dataset/DUD-E/MET/MET_prepare/MET_active.xlsx
+++ b/F_dataset/DUD-E/MET/MET_prepare/MET_active.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T190"/>
+  <dimension ref="A1:T167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10163,1938 +10163,6 @@
       <c r="S167" t="inlineStr"/>
       <c r="T167" t="inlineStr"/>
     </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>CHEMBL3263962</t>
-        </is>
-      </c>
-      <c r="B168" t="n">
-        <v>1</v>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>COc1cc2c(Oc3ccc(NS(=O)(=O)c4cccc(-c5cnn(C)c5)c4)cc3F)ccnc2cc1OCCCN1CCN(C)CC1</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>COc1cc2c(Oc3ccc(NS(=O)(=O)c4cccc(-c5cnn(C)c5)c4)cc3F)ccnc2cc1OCCCN1CCN(C)CC1</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G168" t="n">
-        <v>660.77</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>9</v>
-      </c>
-      <c r="J168" t="n">
-        <v>12</v>
-      </c>
-      <c r="K168" t="n">
-        <v>6</v>
-      </c>
-      <c r="L168" t="n">
-        <v>5</v>
-      </c>
-      <c r="M168" t="n">
-        <v>111.05</v>
-      </c>
-      <c r="N168" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O168" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P168" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q168" t="n">
-        <v>564</v>
-      </c>
-      <c r="R168" t="inlineStr">
-        <is>
-          <t>CHEMBL3266281</t>
-        </is>
-      </c>
-      <c r="S168" t="inlineStr">
-        <is>
-          <t>Inhibition of recombinant c-MET (unknown origin) using poly-AEKY peptide as substrate after 60 mins by ADPGlo assay</t>
-        </is>
-      </c>
-      <c r="T168" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>CHEMBL3321901</t>
-        </is>
-      </c>
-      <c r="B169" t="n">
-        <v>1</v>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>Fc1ccc(-c2nc3ccc(Nc4ncnc5ccccc45)cc3[nH]2)cc1</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>Fc1ccc(-c2nc3ccc(Nc4ncnc5ccccc45)cc3[nH]2)cc1</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G169" t="n">
-        <v>355.38</v>
-      </c>
-      <c r="H169" t="n">
-        <v>2</v>
-      </c>
-      <c r="I169" t="n">
-        <v>4</v>
-      </c>
-      <c r="J169" t="n">
-        <v>3</v>
-      </c>
-      <c r="K169" t="n">
-        <v>5</v>
-      </c>
-      <c r="L169" t="n">
-        <v>5</v>
-      </c>
-      <c r="M169" t="n">
-        <v>66.48999999999999</v>
-      </c>
-      <c r="N169" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O169" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P169" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q169" t="n">
-        <v>50</v>
-      </c>
-      <c r="R169" t="inlineStr">
-        <is>
-          <t>CHEMBL3368963</t>
-        </is>
-      </c>
-      <c r="S169" t="inlineStr">
-        <is>
-          <t>Inhibition of human recombinant c-Met pre-incubated for 5 mins before ATP/substrate peptide cocktail addition measured after 30 mins by colorimetric ELISA assay</t>
-        </is>
-      </c>
-      <c r="T169" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>CHEMBL2442139</t>
-        </is>
-      </c>
-      <c r="B170" t="n">
-        <v>1</v>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>CC(Sc1cc(-c2ccc(OCC(=O)N3CCOCC3)cc2)cnc1N)c1c(Cl)ccc(F)c1Cl</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>CC(Sc1cc(-c2ccc(OCC(=O)N3CCOCC3)cc2)cnc1N)c1c(Cl)ccc(F)c1Cl</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G170" t="n">
-        <v>536.46</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>6</v>
-      </c>
-      <c r="J170" t="n">
-        <v>7</v>
-      </c>
-      <c r="K170" t="n">
-        <v>4</v>
-      </c>
-      <c r="L170" t="n">
-        <v>3</v>
-      </c>
-      <c r="M170" t="n">
-        <v>77.68000000000001</v>
-      </c>
-      <c r="N170" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O170" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P170" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q170" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="R170" t="inlineStr">
-        <is>
-          <t>CHEMBL2447158</t>
-        </is>
-      </c>
-      <c r="S170" t="inlineStr">
-        <is>
-          <t>Inhibition of c-Met (unknown origin) using poly (Glu, Tyr) 4:1 as substrate after 60 mins by ELISA</t>
-        </is>
-      </c>
-      <c r="T170" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>CHEMBL3678512</t>
-        </is>
-      </c>
-      <c r="B171" t="n">
-        <v>1</v>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>[C-]#[N+]C1=C(C(F)F)Nc2onc(C)c2C1c1cc2c(C)n[nH]c2cc1F</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>[C-]#[N+]C1=C(C(F)F)Nc2onc(C)c2C1c1cc2c(C)n[nH]c2cc1F</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G171" t="n">
-        <v>359.31</v>
-      </c>
-      <c r="H171" t="n">
-        <v>2</v>
-      </c>
-      <c r="I171" t="n">
-        <v>4</v>
-      </c>
-      <c r="J171" t="n">
-        <v>2</v>
-      </c>
-      <c r="K171" t="n">
-        <v>4</v>
-      </c>
-      <c r="L171" t="n">
-        <v>3</v>
-      </c>
-      <c r="M171" t="n">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="N171" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O171" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P171" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q171" t="n">
-        <v>100</v>
-      </c>
-      <c r="R171" t="inlineStr">
-        <is>
-          <t>CHEMBL3706315</t>
-        </is>
-      </c>
-      <c r="S171" t="inlineStr">
-        <is>
-          <t>Tyrosine Kinase Activity Assay: Recombinant human c-Met protein (Invitrogen, Carlsbad, Calif., USA) is used. As substrate for the kinase reaction the peptide KKKSPGEYVNIEFG (JPT, Germany) is used. For the assay, 1 uL of a 51-fold concentrated solution of the test compound in DMSO is pipetted into a white 384-well microtiter plate (Greiner Bio-One, Frickenhausen, Germany). 25 uL of a solution of c-Met (final concentration 30 nM) and pyruvate kinase/lactate dehydrogenase (Roche Diagnostics, Mannheim, Germany; final concentration 8 mg/L) in assay buffer [3-(N-morpholino)propanesulfonic acid (MOPS), 50 mM, pH 7; MgCl2, 10 mM; bovine serum albumin (BSA), 0.01%; Triton X 100, 0.01%; DTT, 2 mM] are added, and the mixture is incubated for 5 min at room temperature. Then, the kinase reaction is started by the addition of 25 uL of a solution of adenosine triphosphate (ATP, final concentration 30 uM), substrate (final concentration 100 uM), nicotinamide adenine dinucleotide.</t>
-        </is>
-      </c>
-      <c r="T171" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>CHEMBL50</t>
-        </is>
-      </c>
-      <c r="B172" t="n">
-        <v>1</v>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>O=c1c(O)c(-c2ccc(O)c(O)c2)oc2cc(O)cc(O)c12</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>O=c1c(O)c(-c2ccc(O)c(O)c2)oc2cc(O)cc(O)c12</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G172" t="n">
-        <v>302.24</v>
-      </c>
-      <c r="H172" t="n">
-        <v>5</v>
-      </c>
-      <c r="I172" t="n">
-        <v>7</v>
-      </c>
-      <c r="J172" t="n">
-        <v>1</v>
-      </c>
-      <c r="K172" t="n">
-        <v>3</v>
-      </c>
-      <c r="L172" t="n">
-        <v>3</v>
-      </c>
-      <c r="M172" t="n">
-        <v>131.36</v>
-      </c>
-      <c r="N172" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O172" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P172" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q172" t="n">
-        <v>580</v>
-      </c>
-      <c r="R172" t="inlineStr">
-        <is>
-          <t>CHEMBL3108321</t>
-        </is>
-      </c>
-      <c r="S172" t="inlineStr">
-        <is>
-          <t>Inhibition of wild type MET (unknown origin)</t>
-        </is>
-      </c>
-      <c r="T172" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>CHEMBL3417459</t>
-        </is>
-      </c>
-      <c r="B173" t="n">
-        <v>1</v>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>CN(C)CCCCOC(=O)Nc1cccc(Cn2nc(Nc3ccccc3)ccc2=O)c1</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>CN(C)CCCCOC(=O)Nc1cccc(Cn2nc(Nc3ccccc3)ccc2=O)c1</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G173" t="n">
-        <v>435.53</v>
-      </c>
-      <c r="H173" t="n">
-        <v>2</v>
-      </c>
-      <c r="I173" t="n">
-        <v>6</v>
-      </c>
-      <c r="J173" t="n">
-        <v>10</v>
-      </c>
-      <c r="K173" t="n">
-        <v>3</v>
-      </c>
-      <c r="L173" t="n">
-        <v>3</v>
-      </c>
-      <c r="M173" t="n">
-        <v>88.48999999999999</v>
-      </c>
-      <c r="N173" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O173" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P173" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q173" t="n">
-        <v>360</v>
-      </c>
-      <c r="R173" t="inlineStr">
-        <is>
-          <t>CHEMBL3420280</t>
-        </is>
-      </c>
-      <c r="S173" t="inlineStr">
-        <is>
-          <t>Inhibition of recombinant c-Met (unknown origin) using poly (Glu,Tyr)4:1 substrate incubated for 60 mins by ELISA method</t>
-        </is>
-      </c>
-      <c r="T173" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>CHEMBL3104851</t>
-        </is>
-      </c>
-      <c r="B174" t="n">
-        <v>1</v>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>Cc1c(O)c(O)c2c(c1C=O)[C@@H]1O[C@H](O2)c2c(C)c(O)c(O)c(O)c2C1=O</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>Cc1c(O)c(O)c2c(c1C=O)[C@@H]1O[C@H](O2)c2c(C)c(O)c(O)c(O)c2C1=O</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G174" t="n">
-        <v>374.3</v>
-      </c>
-      <c r="H174" t="n">
-        <v>5</v>
-      </c>
-      <c r="I174" t="n">
-        <v>9</v>
-      </c>
-      <c r="J174" t="n">
-        <v>1</v>
-      </c>
-      <c r="K174" t="n">
-        <v>4</v>
-      </c>
-      <c r="L174" t="n">
-        <v>2</v>
-      </c>
-      <c r="M174" t="n">
-        <v>153.75</v>
-      </c>
-      <c r="N174" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O174" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P174" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q174" t="n">
-        <v>580</v>
-      </c>
-      <c r="R174" t="inlineStr">
-        <is>
-          <t>CHEMBL3108321</t>
-        </is>
-      </c>
-      <c r="S174" t="inlineStr">
-        <is>
-          <t>Inhibition of wild type MET (unknown origin)</t>
-        </is>
-      </c>
-      <c r="T174" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>CHEMBL1822789</t>
-        </is>
-      </c>
-      <c r="B175" t="n">
-        <v>1</v>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>OCCCNc1nccc(-c2[nH]c(-c3c(Cl)cc(OCCO)cc3Cl)nc2-c2cccc(OCc3ccccn3)c2)n1</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>OCCCNc1nccc(-c2[nH]c(-c3c(Cl)cc(OCCO)cc3Cl)nc2-c2cccc(OCc3ccccn3)c2)n1</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G175" t="n">
-        <v>607.5</v>
-      </c>
-      <c r="H175" t="n">
-        <v>4</v>
-      </c>
-      <c r="I175" t="n">
-        <v>9</v>
-      </c>
-      <c r="J175" t="n">
-        <v>13</v>
-      </c>
-      <c r="K175" t="n">
-        <v>5</v>
-      </c>
-      <c r="L175" t="n">
-        <v>5</v>
-      </c>
-      <c r="M175" t="n">
-        <v>138.3</v>
-      </c>
-      <c r="N175" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O175" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P175" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q175" t="n">
-        <v>22</v>
-      </c>
-      <c r="R175" t="inlineStr">
-        <is>
-          <t>CHEMBL1826790</t>
-        </is>
-      </c>
-      <c r="S175" t="inlineStr">
-        <is>
-          <t>Inhibition of human c-MET</t>
-        </is>
-      </c>
-      <c r="T175" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>CHEMBL3919372</t>
-        </is>
-      </c>
-      <c r="B176" t="n">
-        <v>1</v>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>Cn1cc(-c2cnc3nnn(CC4CCCN(c5ncc(-c6cnn(C7CCNCC7)c6)cn5)C4)c3n2)cn1</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>Cn1cc(-c2cnc3nnn(CC4CCCN(c5ncc(-c6cnn(C7CCNCC7)c6)cn5)C4)c3n2)cn1</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G176" t="n">
-        <v>525.63</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>10</v>
-      </c>
-      <c r="J176" t="n">
-        <v>6</v>
-      </c>
-      <c r="K176" t="n">
-        <v>7</v>
-      </c>
-      <c r="L176" t="n">
-        <v>5</v>
-      </c>
-      <c r="M176" t="n">
-        <v>133.18</v>
-      </c>
-      <c r="N176" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O176" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P176" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q176" t="n">
-        <v>2</v>
-      </c>
-      <c r="R176" t="inlineStr">
-        <is>
-          <t>CHEMBL3888808</t>
-        </is>
-      </c>
-      <c r="S176" t="inlineStr">
-        <is>
-          <t>Lanthanide Fluoro-Immunoassay: The c-Met kinase inhibitory activity was analyzed using dissociation enhanced lanthanide fluoro-immunoassay (DELFIA, Perkin Elmer), which is a kind of time-resolved fluorescence (TRF). 10 mL of the compound prepared in the present invention, as a test compound, was put in a Greiner 96-well V-shaped bottom plate, and a tyrosin kinase buffer (20 mL) mixed with a c-Met enzyme was added thereto, and then the enzyme and the test compound were stirred for 15 minutes, followed by culturing. An ATP solution (10 mL) was added thereto to proceed with a kinase reaction at room temperature for 30 minutes, and then a 50 mM ethylene diamine acetic acid solution (EDTA, 40 mL) was added to stop the reaction. After that, the reaction mixture was transferred to a plate coated with Streptavidin, followed by culturing under shaking. After 2 hours, the cultured material was washed three times with a PBS-T buffer (PBS 0.05% Tween 20). The europium-labeled anti-phosphotyrosine antibody was diluted to 1:2,500, and 100 mL of the diluent was added per well, followed by culturing under shaking. After 1 hour, the cultured material was washed three times with a PBS-T buffer (PBS 0.05% Tween 20). 100 mL of an enhancement solution was added, followed by shaking culturing for 5 minutes, and then the reaction material was read out within a wavelength range of 615/665 nm using a Wallac Envision 2103 device.</t>
-        </is>
-      </c>
-      <c r="T176" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>CHEMBL3394452</t>
-        </is>
-      </c>
-      <c r="B177" t="n">
-        <v>1</v>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>Nc1noc2cccc(-c3ccc(NC(=O)C4(C(=O)Nc5ccc(C(F)(F)F)cc5)CC4)cc3)c12</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>Nc1noc2cccc(-c3ccc(NC(=O)C4(C(=O)Nc5ccc(C(F)(F)F)cc5)CC4)cc3)c12</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G177" t="n">
-        <v>480.45</v>
-      </c>
-      <c r="H177" t="n">
-        <v>3</v>
-      </c>
-      <c r="I177" t="n">
-        <v>5</v>
-      </c>
-      <c r="J177" t="n">
-        <v>5</v>
-      </c>
-      <c r="K177" t="n">
-        <v>5</v>
-      </c>
-      <c r="L177" t="n">
-        <v>4</v>
-      </c>
-      <c r="M177" t="n">
-        <v>110.25</v>
-      </c>
-      <c r="N177" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O177" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P177" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q177" t="n">
-        <v>566</v>
-      </c>
-      <c r="R177" t="inlineStr">
-        <is>
-          <t>CHEMBL3396121</t>
-        </is>
-      </c>
-      <c r="S177" t="inlineStr">
-        <is>
-          <t>Inhibition of purified recombinant c-MET (unknown origin) using poly (Glu, Tyr) substrate after 60 mins by ELISA</t>
-        </is>
-      </c>
-      <c r="T177" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>CHEMBL4214671</t>
-        </is>
-      </c>
-      <c r="B178" t="n">
-        <v>1</v>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>CCNC(=O)c1cc(Oc2ccc(NC(=O)c3cc4cccnc4n(-c4ccc(F)cc4)c3=O)cc2)ccn1</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>CCNC(=O)c1cc(Oc2ccc(NC(=O)c3cc4cccnc4n(-c4ccc(F)cc4)c3=O)cc2)ccn1</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G178" t="n">
-        <v>523.52</v>
-      </c>
-      <c r="H178" t="n">
-        <v>2</v>
-      </c>
-      <c r="I178" t="n">
-        <v>6</v>
-      </c>
-      <c r="J178" t="n">
-        <v>7</v>
-      </c>
-      <c r="K178" t="n">
-        <v>5</v>
-      </c>
-      <c r="L178" t="n">
-        <v>5</v>
-      </c>
-      <c r="M178" t="n">
-        <v>115.21</v>
-      </c>
-      <c r="N178" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O178" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P178" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q178" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="R178" t="inlineStr">
-        <is>
-          <t>CHEMBL4185092</t>
-        </is>
-      </c>
-      <c r="S178" t="inlineStr">
-        <is>
-          <t>Inhibition of c-MET (unknown origin) using poly (Glu, Tyr) 4:1 as substrate after 30 mins in presence of ATP by HTRF assay</t>
-        </is>
-      </c>
-      <c r="T178" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>CHEMBL1822793</t>
-        </is>
-      </c>
-      <c r="B179" t="n">
-        <v>1</v>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>O=S(=O)(c1c(Cl)nc2sccn12)[N+]1=C2C=C(N3CCNCC3)C=NC2C=C1</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>O=S(=O)(c1c(Cl)nc2sccn12)[N+]1=C2C=C(N3CCNCC3)C=NC2C=C1</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G179" t="n">
-        <v>423.93</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>5</v>
-      </c>
-      <c r="J179" t="n">
-        <v>3</v>
-      </c>
-      <c r="K179" t="n">
-        <v>5</v>
-      </c>
-      <c r="L179" t="n">
-        <v>2</v>
-      </c>
-      <c r="M179" t="n">
-        <v>82.08</v>
-      </c>
-      <c r="N179" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O179" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P179" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q179" t="n">
-        <v>24</v>
-      </c>
-      <c r="R179" t="inlineStr">
-        <is>
-          <t>CHEMBL1826790</t>
-        </is>
-      </c>
-      <c r="S179" t="inlineStr">
-        <is>
-          <t>Inhibition of human c-MET</t>
-        </is>
-      </c>
-      <c r="T179" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>CHEMBL1822561</t>
-        </is>
-      </c>
-      <c r="B180" t="n">
-        <v>1</v>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>CC(C(=O)N/N=C1\C(=O)Nc2ccc(C(=O)N3CCCC3CN3CCCC3)c(Cl)c21)c1ccc(F)cc1</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>CC(C(=O)N/N=C1\C(=O)Nc2ccc(C(=O)N3CCCC3CN3CCCC3)c(Cl)c21)c1ccc(F)cc1</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G180" t="n">
-        <v>526.01</v>
-      </c>
-      <c r="H180" t="n">
-        <v>2</v>
-      </c>
-      <c r="I180" t="n">
-        <v>4</v>
-      </c>
-      <c r="J180" t="n">
-        <v>6</v>
-      </c>
-      <c r="K180" t="n">
-        <v>5</v>
-      </c>
-      <c r="L180" t="n">
-        <v>2</v>
-      </c>
-      <c r="M180" t="n">
-        <v>94.11</v>
-      </c>
-      <c r="N180" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O180" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P180" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q180" t="n">
-        <v>430</v>
-      </c>
-      <c r="R180" t="inlineStr">
-        <is>
-          <t>CHEMBL1826790</t>
-        </is>
-      </c>
-      <c r="S180" t="inlineStr">
-        <is>
-          <t>Inhibition of human c-MET</t>
-        </is>
-      </c>
-      <c r="T180" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>CHEMBL1823126</t>
-        </is>
-      </c>
-      <c r="B181" t="n">
-        <v>1</v>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>Fc1ccc(Cc2nnc3ncc(-c4cccs4)nn23)cc1</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>Fc1ccc(Cc2nnc3ncc(-c4cccs4)nn23)cc1</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G181" t="n">
-        <v>311.35</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>4</v>
-      </c>
-      <c r="J181" t="n">
-        <v>3</v>
-      </c>
-      <c r="K181" t="n">
-        <v>4</v>
-      </c>
-      <c r="L181" t="n">
-        <v>4</v>
-      </c>
-      <c r="M181" t="n">
-        <v>55.97</v>
-      </c>
-      <c r="N181" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O181" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P181" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q181" t="n">
-        <v>13</v>
-      </c>
-      <c r="R181" t="inlineStr">
-        <is>
-          <t>CHEMBL1826790</t>
-        </is>
-      </c>
-      <c r="S181" t="inlineStr">
-        <is>
-          <t>Inhibition of human c-MET</t>
-        </is>
-      </c>
-      <c r="T181" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>CHEMBL3704017</t>
-        </is>
-      </c>
-      <c r="B182" t="n">
-        <v>1</v>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>C/C(=N\OCCO)c1ccc2nnc(Sc3ccc4ncc(N5CCN(C)CC5)cc4c3)n2c1</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>C/C(=N\OCCO)c1ccc2nnc(Sc3ccc4ncc(N5CCN(C)CC5)cc4c3)n2c1</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G182" t="n">
-        <v>477.59</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>8</v>
-      </c>
-      <c r="J182" t="n">
-        <v>7</v>
-      </c>
-      <c r="K182" t="n">
-        <v>5</v>
-      </c>
-      <c r="L182" t="n">
-        <v>4</v>
-      </c>
-      <c r="M182" t="n">
-        <v>91.38</v>
-      </c>
-      <c r="N182" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O182" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P182" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q182" t="n">
-        <v>10</v>
-      </c>
-      <c r="R182" t="inlineStr">
-        <is>
-          <t>CHEMBL3706358</t>
-        </is>
-      </c>
-      <c r="S182" t="inlineStr">
-        <is>
-          <t>LanthaScreen Assay: The kinase assay is based on the LanthaScreen technology. LanthaScreen is the detection of Time-Resolved Fluorescence Resonance Energy Transfer (TR-FRET) using lanthanide chelates to measure interactions between various binding partners. In a TR-FRET kinase assay, a long-lifetime lanthanide donor species is conjugated to an antibody that specifically binds to a phosphorylated product of a kinase reaction that is labeled with a suitable acceptor fluorophore. This antibody-mediated interaction brings the lanthanide donor and the acceptor into proximity such that resonance energy transfer can take place, resulting in a detectable increase in the FRET signal.The kinase reactions were performed in 384 well microtiter plates in a total reaction volume of 10.05 μL. The assay plates were prepared with 0.05 μL per well of test compound in the appropriate test concentration, as described under preparation of compound dilutions.</t>
-        </is>
-      </c>
-      <c r="T182" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>CHEMBL2333163</t>
-        </is>
-      </c>
-      <c r="B183" t="n">
-        <v>1</v>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>O=C(NCCc1ccc(O)c(Br)c1)/C(Cc1cc(Br)c(O)c(Oc2ccc(CCNC(=O)/C(Cc3cc(Br)c(O)c(-c4cc(C/C(=N\O)C(=O)NCCc5ccc(O)c(Br)c5)cc(Br)c4O)c3)=N/O)cc2Br)c1)=N/O</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>O=C(NCCc1ccc(O)c(Br)c1)/C(Cc1cc(Br)c(O)c(Oc2ccc(CCNC(=O)/C(Cc3cc(Br)c(O)c(-c4cc(C/C(=N\O)C(=O)NCCc5ccc(O)c(Br)c5)cc(Br)c4O)c3)=N/O)cc2Br)c1)=N/O</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G183" t="n">
-        <v>1412.37</v>
-      </c>
-      <c r="H183" t="n">
-        <v>11</v>
-      </c>
-      <c r="I183" t="n">
-        <v>12</v>
-      </c>
-      <c r="J183" t="n">
-        <v>21</v>
-      </c>
-      <c r="K183" t="n">
-        <v>6</v>
-      </c>
-      <c r="L183" t="n">
-        <v>6</v>
-      </c>
-      <c r="M183" t="n">
-        <v>295.45</v>
-      </c>
-      <c r="N183" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O183" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P183" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q183" t="n">
-        <v>800</v>
-      </c>
-      <c r="R183" t="inlineStr">
-        <is>
-          <t>CHEMBL2345559</t>
-        </is>
-      </c>
-      <c r="S183" t="inlineStr">
-        <is>
-          <t>Inhibition of MET (unknown origin)</t>
-        </is>
-      </c>
-      <c r="T183" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>CHEMBL3648324</t>
-        </is>
-      </c>
-      <c r="B184" t="n">
-        <v>1</v>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>CC1=NC(C)=C(C#N)C(c2ccc3[nH]nc(OCCN4CCCCC4)c3c2)C1C#N</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>CC1=NC(C)=C(C#N)C(c2ccc3[nH]nc(OCCN4CCCCC4)c3c2)C1C#N</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G184" t="n">
-        <v>402.5</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>5</v>
-      </c>
-      <c r="J184" t="n">
-        <v>5</v>
-      </c>
-      <c r="K184" t="n">
-        <v>4</v>
-      </c>
-      <c r="L184" t="n">
-        <v>2</v>
-      </c>
-      <c r="M184" t="n">
-        <v>101.09</v>
-      </c>
-      <c r="N184" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O184" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P184" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q184" t="n">
-        <v>15</v>
-      </c>
-      <c r="R184" t="inlineStr">
-        <is>
-          <t>CHEMBL3705062</t>
-        </is>
-      </c>
-      <c r="S184" t="inlineStr">
-        <is>
-          <t>Time-Resolved Fluorescence Assay: Homogeneous time-resolved fluorescence assay using c-Met receptor tyrosine kinase.</t>
-        </is>
-      </c>
-      <c r="T184" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>CHEMBL3263970</t>
-        </is>
-      </c>
-      <c r="B185" t="n">
-        <v>1</v>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>CNC(=O)c1ccccc1Nc1nc(Nc2ccc3c(c2)C(c2ccccc2)CN(C)CC3)ncc1Cl</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>CNC(=O)c1ccccc1Nc1nc(Nc2ccc3c(c2)C(c2ccccc2)CN(C)CC3)ncc1Cl</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G185" t="n">
-        <v>513.05</v>
-      </c>
-      <c r="H185" t="n">
-        <v>3</v>
-      </c>
-      <c r="I185" t="n">
-        <v>6</v>
-      </c>
-      <c r="J185" t="n">
-        <v>6</v>
-      </c>
-      <c r="K185" t="n">
-        <v>5</v>
-      </c>
-      <c r="L185" t="n">
-        <v>4</v>
-      </c>
-      <c r="M185" t="n">
-        <v>82.18000000000001</v>
-      </c>
-      <c r="N185" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O185" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P185" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q185" t="n">
-        <v>25.33</v>
-      </c>
-      <c r="R185" t="inlineStr">
-        <is>
-          <t>CHEMBL3267805</t>
-        </is>
-      </c>
-      <c r="S185" t="inlineStr">
-        <is>
-          <t>Inhibition of purified recombinant c-MET (unknown origin) after 60 mins by ELISA</t>
-        </is>
-      </c>
-      <c r="T185" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>CHEMBL560733</t>
-        </is>
-      </c>
-      <c r="B186" t="n">
-        <v>1</v>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>Cc1cc(O)cc(-c2nn(CC#N)cc2-c2cc(NC[C@H](C)O)nc(-c3cccnc3)n2)c1</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>Cc1cc(O)cc(-c2nn(CC#N)cc2-c2cc(NC[C@H](C)O)nc(-c3cccnc3)n2)c1</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G186" t="n">
-        <v>441.5</v>
-      </c>
-      <c r="H186" t="n">
-        <v>3</v>
-      </c>
-      <c r="I186" t="n">
-        <v>8</v>
-      </c>
-      <c r="J186" t="n">
-        <v>7</v>
-      </c>
-      <c r="K186" t="n">
-        <v>4</v>
-      </c>
-      <c r="L186" t="n">
-        <v>4</v>
-      </c>
-      <c r="M186" t="n">
-        <v>132.77</v>
-      </c>
-      <c r="N186" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O186" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P186" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q186" t="n">
-        <v>11</v>
-      </c>
-      <c r="R186" t="inlineStr">
-        <is>
-          <t>CHEMBL3399483</t>
-        </is>
-      </c>
-      <c r="S186" t="inlineStr">
-        <is>
-          <t>Inhibition of c-Met (unknown origin) incubated for 20 mins followed by [33P]ATP addition measured after 120 mins by HotSpot assay</t>
-        </is>
-      </c>
-      <c r="T186" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>CHEMBL561583</t>
-        </is>
-      </c>
-      <c r="B187" t="n">
-        <v>1</v>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>O=C(O)c1cnc2ccn(S(=O)(=O)c3ccccc3[N+](=O)[O-])c2c1</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>O=C(O)c1cnc2ccn(S(=O)(=O)c3ccccc3[N+](=O)[O-])c2c1</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G187" t="n">
-        <v>347.31</v>
-      </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>7</v>
-      </c>
-      <c r="J187" t="n">
-        <v>4</v>
-      </c>
-      <c r="K187" t="n">
-        <v>3</v>
-      </c>
-      <c r="L187" t="n">
-        <v>3</v>
-      </c>
-      <c r="M187" t="n">
-        <v>132.4</v>
-      </c>
-      <c r="N187" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O187" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P187" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q187" t="n">
-        <v>310</v>
-      </c>
-      <c r="R187" t="inlineStr">
-        <is>
-          <t>CHEMBL1826790</t>
-        </is>
-      </c>
-      <c r="S187" t="inlineStr">
-        <is>
-          <t>Inhibition of human c-MET</t>
-        </is>
-      </c>
-      <c r="T187" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>CHEMBL4786582</t>
-        </is>
-      </c>
-      <c r="B188" t="n">
-        <v>1</v>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>Clc1cccc(Nc2nn3c(Cn4ccc5ncccc54)nnc3s2)c1</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>Clc1cccc(Nc2nn3c(Cn4ccc5ncccc54)nnc3s2)c1</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G188" t="n">
-        <v>381.85</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>5</v>
-      </c>
-      <c r="J188" t="n">
-        <v>4</v>
-      </c>
-      <c r="K188" t="n">
-        <v>5</v>
-      </c>
-      <c r="L188" t="n">
-        <v>5</v>
-      </c>
-      <c r="M188" t="n">
-        <v>72.93000000000001</v>
-      </c>
-      <c r="N188" t="inlineStr">
-        <is>
-          <t>Ki</t>
-        </is>
-      </c>
-      <c r="O188" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P188" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q188" t="n">
-        <v>40</v>
-      </c>
-      <c r="R188" t="inlineStr">
-        <is>
-          <t>CHEMBL4715301</t>
-        </is>
-      </c>
-      <c r="S188" t="inlineStr">
-        <is>
-          <t>Inhibition of c-Met (unknown origin) using poly Glu-Tyr as substrate preincubated for 10 mins followed by ATP addition by phosphoenolpyruvate/pyruvate kinase/lactate dehydrogenase coupled radiometric assay</t>
-        </is>
-      </c>
-      <c r="T188" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>CHEMBL2431824</t>
-        </is>
-      </c>
-      <c r="B189" t="n">
-        <v>1</v>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>COc1ccc(-c2ccc3nnc([C@@H](C)c4ccc5ncccc5c4)n3n2)cc1C</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>COc1ccc(-c2ccc3nnc([C@@H](C)c4ccc5ncccc5c4)n3n2)cc1C</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G189" t="n">
-        <v>395.47</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>5</v>
-      </c>
-      <c r="J189" t="n">
-        <v>4</v>
-      </c>
-      <c r="K189" t="n">
-        <v>5</v>
-      </c>
-      <c r="L189" t="n">
-        <v>5</v>
-      </c>
-      <c r="M189" t="n">
-        <v>65.2</v>
-      </c>
-      <c r="N189" t="inlineStr">
-        <is>
-          <t>Ki</t>
-        </is>
-      </c>
-      <c r="O189" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P189" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q189" t="n">
-        <v>3</v>
-      </c>
-      <c r="R189" t="inlineStr">
-        <is>
-          <t>CHEMBL2434668</t>
-        </is>
-      </c>
-      <c r="S189" t="inlineStr">
-        <is>
-          <t>Inhibition of N-terminal His-6-tagged human recombinant c-Met (974 to 1390) using Ac-ARDMYDKEYYSVHNK as substrate by spectrophotometric assay</t>
-        </is>
-      </c>
-      <c r="T189" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>CHEMBL2103882</t>
-        </is>
-      </c>
-      <c r="B190" t="n">
-        <v>1</v>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>O=C1NC(=O)[C@@H](c2cn3c4c(cccc24)CCC3)[C@@H]1c1c[nH]c2ccccc12</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>O=C1NC(=O)[C@@H](c2cn3c4c(cccc24)CCC3)[C@@H]1c1c[nH]c2ccccc12</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G190" t="n">
-        <v>369.42</v>
-      </c>
-      <c r="H190" t="n">
-        <v>2</v>
-      </c>
-      <c r="I190" t="n">
-        <v>2</v>
-      </c>
-      <c r="J190" t="n">
-        <v>2</v>
-      </c>
-      <c r="K190" t="n">
-        <v>6</v>
-      </c>
-      <c r="L190" t="n">
-        <v>4</v>
-      </c>
-      <c r="M190" t="n">
-        <v>66.89</v>
-      </c>
-      <c r="N190" t="inlineStr">
-        <is>
-          <t>Ki</t>
-        </is>
-      </c>
-      <c r="O190" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P190" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q190" t="n">
-        <v>355</v>
-      </c>
-      <c r="R190" t="inlineStr">
-        <is>
-          <t>CHEMBL3767620</t>
-        </is>
-      </c>
-      <c r="S190" t="inlineStr">
-        <is>
-          <t>Inhibition of c-Met (unknown origin)</t>
-        </is>
-      </c>
-      <c r="T190" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
